--- a/Code/Results/Cases/Case_3_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014169496466349</v>
+        <v>1.043932743268985</v>
       </c>
       <c r="D2">
-        <v>1.02800648010414</v>
+        <v>1.045237337436435</v>
       </c>
       <c r="E2">
-        <v>1.017939406746319</v>
+        <v>1.041800697123538</v>
       </c>
       <c r="F2">
-        <v>0.9767409309933505</v>
+        <v>1.049099777258221</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049022288011224</v>
+        <v>1.044566932928541</v>
       </c>
       <c r="J2">
-        <v>1.03593450504801</v>
+        <v>1.049000537369658</v>
       </c>
       <c r="K2">
-        <v>1.039088955908886</v>
+        <v>1.048006141244341</v>
       </c>
       <c r="L2">
-        <v>1.029154348932163</v>
+        <v>1.044579186282664</v>
       </c>
       <c r="M2">
-        <v>0.9885341022146419</v>
+        <v>1.051857777827612</v>
       </c>
       <c r="N2">
-        <v>1.037405650868527</v>
+        <v>1.050490238454766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02052399865266</v>
+        <v>1.045143125510318</v>
       </c>
       <c r="D3">
-        <v>1.032960393223446</v>
+        <v>1.04617860050535</v>
       </c>
       <c r="E3">
-        <v>1.023237038180421</v>
+        <v>1.042844677160427</v>
       </c>
       <c r="F3">
-        <v>0.9897998738303603</v>
+        <v>1.051487736312702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052086783549649</v>
+        <v>1.045044182254169</v>
       </c>
       <c r="J3">
-        <v>1.040470377003079</v>
+        <v>1.04985667644488</v>
       </c>
       <c r="K3">
-        <v>1.043188218366977</v>
+        <v>1.048758465866926</v>
       </c>
       <c r="L3">
-        <v>1.033580985279863</v>
+        <v>1.045433256027789</v>
       </c>
       <c r="M3">
-        <v>1.000564952582227</v>
+        <v>1.054053848853092</v>
       </c>
       <c r="N3">
-        <v>1.041947964282043</v>
+        <v>1.051347593345676</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024509410706718</v>
+        <v>1.045925087282464</v>
       </c>
       <c r="D4">
-        <v>1.036066335832579</v>
+        <v>1.046786432886435</v>
       </c>
       <c r="E4">
-        <v>1.026563527857094</v>
+        <v>1.043519237544882</v>
       </c>
       <c r="F4">
-        <v>0.9978600237354621</v>
+        <v>1.05302650123891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053987705997705</v>
+        <v>1.045350669819362</v>
       </c>
       <c r="J4">
-        <v>1.043306283784653</v>
+        <v>1.050408909171509</v>
       </c>
       <c r="K4">
-        <v>1.045748118728163</v>
+        <v>1.049243422393772</v>
       </c>
       <c r="L4">
-        <v>1.036351586370193</v>
+        <v>1.04598433441069</v>
       </c>
       <c r="M4">
-        <v>1.007984345188029</v>
+        <v>1.055468156743401</v>
       </c>
       <c r="N4">
-        <v>1.044787898376531</v>
+        <v>1.051900610306119</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026156451864206</v>
+        <v>1.046253533302286</v>
       </c>
       <c r="D5">
-        <v>1.037349674799154</v>
+        <v>1.047041675676442</v>
       </c>
       <c r="E5">
-        <v>1.02793914614212</v>
+        <v>1.043802595812555</v>
       </c>
       <c r="F5">
-        <v>1.001163584165105</v>
+        <v>1.053671903823833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054768419302739</v>
+        <v>1.045478964563315</v>
       </c>
       <c r="J5">
-        <v>1.044476180473853</v>
+        <v>1.050640653908222</v>
       </c>
       <c r="K5">
-        <v>1.046803450309916</v>
+        <v>1.049446859704908</v>
       </c>
       <c r="L5">
-        <v>1.037495221264214</v>
+        <v>1.046215637707377</v>
       </c>
       <c r="M5">
-        <v>1.011023737802853</v>
+        <v>1.056061165033712</v>
       </c>
       <c r="N5">
-        <v>1.045959456453219</v>
+        <v>1.052132684146939</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026431379957075</v>
+        <v>1.046308663939979</v>
       </c>
       <c r="D6">
-        <v>1.03756387839043</v>
+        <v>1.047084515176395</v>
       </c>
       <c r="E6">
-        <v>1.028168818403898</v>
+        <v>1.043850159720871</v>
       </c>
       <c r="F6">
-        <v>1.001713508214478</v>
+        <v>1.0537801832605</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054898455655645</v>
+        <v>1.045500473521251</v>
       </c>
       <c r="J6">
-        <v>1.044671340512265</v>
+        <v>1.050679540719315</v>
       </c>
       <c r="K6">
-        <v>1.04697945795716</v>
+        <v>1.049480992129858</v>
       </c>
       <c r="L6">
-        <v>1.037686039260507</v>
+        <v>1.046254452959555</v>
       </c>
       <c r="M6">
-        <v>1.011529595005369</v>
+        <v>1.05616064291109</v>
       </c>
       <c r="N6">
-        <v>1.04615489364127</v>
+        <v>1.052171626181764</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024531527973106</v>
+        <v>1.045929477129026</v>
       </c>
       <c r="D7">
-        <v>1.036083570102092</v>
+        <v>1.046789844586696</v>
       </c>
       <c r="E7">
-        <v>1.026581996878212</v>
+        <v>1.043523024677851</v>
       </c>
       <c r="F7">
-        <v>0.9979044895726099</v>
+        <v>1.053035130958695</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053998208884887</v>
+        <v>1.045352386266048</v>
       </c>
       <c r="J7">
-        <v>1.043322001953666</v>
+        <v>1.050412007376413</v>
       </c>
       <c r="K7">
-        <v>1.045762300418363</v>
+        <v>1.04924614245016</v>
       </c>
       <c r="L7">
-        <v>1.036366949056716</v>
+        <v>1.045987426545245</v>
       </c>
       <c r="M7">
-        <v>1.008025261536042</v>
+        <v>1.055476086656485</v>
       </c>
       <c r="N7">
-        <v>1.044803638867147</v>
+        <v>1.051903712910829</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016344363351491</v>
+        <v>1.04434205684541</v>
       </c>
       <c r="D8">
-        <v>1.029702214659486</v>
+        <v>1.045555698330704</v>
       </c>
       <c r="E8">
-        <v>1.019751690558091</v>
+        <v>1.042153717188038</v>
       </c>
       <c r="F8">
-        <v>0.9812404599455785</v>
+        <v>1.049908148882319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050075700694142</v>
+        <v>1.044728705272684</v>
       </c>
       <c r="J8">
-        <v>1.037488845069516</v>
+        <v>1.049290237756808</v>
       </c>
       <c r="K8">
-        <v>1.040494337156574</v>
+        <v>1.048260777871785</v>
       </c>
       <c r="L8">
-        <v>1.030670597667242</v>
+        <v>1.044868148878568</v>
       </c>
       <c r="M8">
-        <v>0.9926806835530495</v>
+        <v>1.05260135907733</v>
       </c>
       <c r="N8">
-        <v>1.038962198231149</v>
+        <v>1.050780350249695</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000854962590858</v>
+        <v>1.041535109370893</v>
       </c>
       <c r="D9">
-        <v>1.017619819087307</v>
+        <v>1.043371390555874</v>
       </c>
       <c r="E9">
-        <v>1.006863985138122</v>
+        <v>1.039733254481126</v>
       </c>
       <c r="F9">
-        <v>0.9484297780949412</v>
+        <v>1.044347189931047</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042472127200055</v>
+        <v>1.043611718513763</v>
       </c>
       <c r="J9">
-        <v>1.026377566006986</v>
+        <v>1.047299969002032</v>
       </c>
       <c r="K9">
-        <v>1.030433351957231</v>
+        <v>1.046510107938976</v>
       </c>
       <c r="L9">
-        <v>1.019846672012869</v>
+        <v>1.04288370180426</v>
       </c>
       <c r="M9">
-        <v>0.9624188954333772</v>
+        <v>1.047482776394319</v>
       </c>
       <c r="N9">
-        <v>1.027835139877868</v>
+        <v>1.048787255085001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9896560385576435</v>
+        <v>1.039656941996355</v>
       </c>
       <c r="D10">
-        <v>1.008874955929108</v>
+        <v>1.041908483326912</v>
       </c>
       <c r="E10">
-        <v>0.997573730388848</v>
+        <v>1.03811426685003</v>
       </c>
       <c r="F10">
-        <v>0.9234112861698051</v>
+        <v>1.040603222881471</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036828761855952</v>
+        <v>1.042854720035505</v>
       </c>
       <c r="J10">
-        <v>1.018286155577258</v>
+        <v>1.045963729567423</v>
       </c>
       <c r="K10">
-        <v>1.023085798090931</v>
+        <v>1.045333103565895</v>
       </c>
       <c r="L10">
-        <v>1.011986930501804</v>
+        <v>1.041552328367055</v>
       </c>
       <c r="M10">
-        <v>0.9393162496939631</v>
+        <v>1.044032454904197</v>
       </c>
       <c r="N10">
-        <v>1.019732238717233</v>
+        <v>1.047449118037126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9845539870572599</v>
+        <v>1.038841968357594</v>
       </c>
       <c r="D11">
-        <v>1.004887418927515</v>
+        <v>1.041273379865988</v>
       </c>
       <c r="E11">
-        <v>0.9933486984191059</v>
+        <v>1.037411900695516</v>
       </c>
       <c r="F11">
-        <v>0.9115683031182551</v>
+        <v>1.038972786639726</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034215923264262</v>
+        <v>1.042523947338278</v>
       </c>
       <c r="J11">
-        <v>1.01458376126005</v>
+        <v>1.045382833353632</v>
       </c>
       <c r="K11">
-        <v>1.019717750533356</v>
+        <v>1.044821043585509</v>
       </c>
       <c r="L11">
-        <v>1.008397148152564</v>
+        <v>1.040973777979647</v>
       </c>
       <c r="M11">
-        <v>0.928375650661916</v>
+        <v>1.042528904453355</v>
       </c>
       <c r="N11">
-        <v>1.016024586575423</v>
+        <v>1.046867396884082</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9826158475092114</v>
+        <v>1.038538986451675</v>
       </c>
       <c r="D12">
-        <v>1.003371932599821</v>
+        <v>1.041037220318412</v>
       </c>
       <c r="E12">
-        <v>0.9917449087883601</v>
+        <v>1.037150805055709</v>
       </c>
       <c r="F12">
-        <v>0.9069862033199222</v>
+        <v>1.038365727961106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033216224459668</v>
+        <v>1.042400629798475</v>
       </c>
       <c r="J12">
-        <v>1.013174603593302</v>
+        <v>1.045166712281658</v>
       </c>
       <c r="K12">
-        <v>1.018434815578662</v>
+        <v>1.044630474611011</v>
       </c>
       <c r="L12">
-        <v>1.007031990849625</v>
+        <v>1.040758564584194</v>
       </c>
       <c r="M12">
-        <v>0.92414225983922</v>
+        <v>1.041968940128231</v>
       </c>
       <c r="N12">
-        <v>1.014613427743156</v>
+        <v>1.046650968895395</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9830336255342635</v>
+        <v>1.038603989174042</v>
       </c>
       <c r="D13">
-        <v>1.003698641816743</v>
+        <v>1.041087888914479</v>
       </c>
       <c r="E13">
-        <v>0.9920905607564861</v>
+        <v>1.037206820343668</v>
       </c>
       <c r="F13">
-        <v>0.9079779794721928</v>
+        <v>1.038496010157282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033432055217072</v>
+        <v>1.042427102447661</v>
       </c>
       <c r="J13">
-        <v>1.013478484613461</v>
+        <v>1.045213086927856</v>
       </c>
       <c r="K13">
-        <v>1.018711526078634</v>
+        <v>1.044671368998086</v>
       </c>
       <c r="L13">
-        <v>1.007326329124015</v>
+        <v>1.040804742879238</v>
       </c>
       <c r="M13">
-        <v>0.9250585737270324</v>
+        <v>1.042089122035381</v>
       </c>
       <c r="N13">
-        <v>1.014917740309219</v>
+        <v>1.04669740939891</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9843946906872455</v>
+        <v>1.038816929212205</v>
       </c>
       <c r="D14">
-        <v>1.004762876653111</v>
+        <v>1.041253864052873</v>
       </c>
       <c r="E14">
-        <v>0.9932168578502906</v>
+        <v>1.037390322672478</v>
       </c>
       <c r="F14">
-        <v>0.9111934978744163</v>
+        <v>1.038922636683057</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034133908438015</v>
+        <v>1.042513763159331</v>
       </c>
       <c r="J14">
-        <v>1.014467999131852</v>
+        <v>1.045364975897336</v>
       </c>
       <c r="K14">
-        <v>1.019612379362859</v>
+        <v>1.044805298613272</v>
       </c>
       <c r="L14">
-        <v>1.008284976596451</v>
+        <v>1.040955994808362</v>
       </c>
       <c r="M14">
-        <v>0.928029375889842</v>
+        <v>1.042482648060822</v>
       </c>
       <c r="N14">
-        <v>1.015908660051725</v>
+        <v>1.046849514068149</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9852274175538132</v>
+        <v>1.038948093356147</v>
       </c>
       <c r="D15">
-        <v>1.00541389466995</v>
+        <v>1.041356093019529</v>
       </c>
       <c r="E15">
-        <v>0.9939061074332682</v>
+        <v>1.03750335711612</v>
       </c>
       <c r="F15">
-        <v>0.9131493154072527</v>
+        <v>1.039185302803944</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034562347650567</v>
+        <v>1.042567097395259</v>
       </c>
       <c r="J15">
-        <v>1.015073037256124</v>
+        <v>1.04545851311468</v>
       </c>
       <c r="K15">
-        <v>1.020163065773859</v>
+        <v>1.04488776827057</v>
       </c>
       <c r="L15">
-        <v>1.008871295541531</v>
+        <v>1.041049144352163</v>
       </c>
       <c r="M15">
-        <v>0.9298362995311118</v>
+        <v>1.042724915103968</v>
       </c>
       <c r="N15">
-        <v>1.016514557399532</v>
+        <v>1.04694318411907</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9899889153984265</v>
+        <v>1.039710992407511</v>
       </c>
       <c r="D16">
-        <v>1.00913503085001</v>
+        <v>1.041950597741423</v>
       </c>
       <c r="E16">
-        <v>0.9978495472340608</v>
+        <v>1.03816085203563</v>
       </c>
       <c r="F16">
-        <v>0.9241735271964807</v>
+        <v>1.040711230033435</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036998304321265</v>
+        <v>1.042876608963642</v>
       </c>
       <c r="J16">
-        <v>1.018527359455028</v>
+        <v>1.046002232904762</v>
       </c>
       <c r="K16">
-        <v>1.023305086230369</v>
+        <v>1.045367036103199</v>
       </c>
       <c r="L16">
-        <v>1.012220945353147</v>
+        <v>1.041590681089668</v>
       </c>
       <c r="M16">
-        <v>0.9400203386806879</v>
+        <v>1.044132035749818</v>
       </c>
       <c r="N16">
-        <v>1.019973785132176</v>
+        <v>1.04748767605362</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9929047879381615</v>
+        <v>1.040189074973631</v>
       </c>
       <c r="D17">
-        <v>1.011412778215814</v>
+        <v>1.042323068116899</v>
       </c>
       <c r="E17">
-        <v>1.000266444112029</v>
+        <v>1.038572920489423</v>
       </c>
       <c r="F17">
-        <v>0.9307990573467687</v>
+        <v>1.041665886852687</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038478659045049</v>
+        <v>1.043069954077834</v>
       </c>
       <c r="J17">
-        <v>1.020638381929591</v>
+        <v>1.046342675515206</v>
       </c>
       <c r="K17">
-        <v>1.025223616057445</v>
+        <v>1.045667019516814</v>
       </c>
       <c r="L17">
-        <v>1.014269803210237</v>
+        <v>1.041929818583974</v>
       </c>
       <c r="M17">
-        <v>0.9461399256718276</v>
+        <v>1.045012099637897</v>
       </c>
       <c r="N17">
-        <v>1.02208780550079</v>
+        <v>1.04782860213162</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9945815633265107</v>
+        <v>1.040467767459407</v>
       </c>
       <c r="D18">
-        <v>1.0127222862925</v>
+        <v>1.042540164460704</v>
       </c>
       <c r="E18">
-        <v>1.001656976510893</v>
+        <v>1.038813144707244</v>
       </c>
       <c r="F18">
-        <v>0.9345687206549923</v>
+        <v>1.042221830574884</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039326094640727</v>
+        <v>1.043182441118282</v>
       </c>
       <c r="J18">
-        <v>1.021850847183681</v>
+        <v>1.046541028799362</v>
       </c>
       <c r="K18">
-        <v>1.026324971462597</v>
+        <v>1.045841762653357</v>
       </c>
       <c r="L18">
-        <v>1.015447169547177</v>
+        <v>1.042127433627415</v>
       </c>
       <c r="M18">
-        <v>0.949621295949469</v>
+        <v>1.045524508817067</v>
       </c>
       <c r="N18">
-        <v>1.023301992594612</v>
+        <v>1.048027237100191</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9951493631497512</v>
+        <v>1.040562766613909</v>
       </c>
       <c r="D19">
-        <v>1.013165671155168</v>
+        <v>1.042614161835233</v>
       </c>
       <c r="E19">
-        <v>1.002127962449737</v>
+        <v>1.038895033344241</v>
       </c>
       <c r="F19">
-        <v>0.9358387865035932</v>
+        <v>1.042411243275232</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039612427594476</v>
+        <v>1.043220747610737</v>
       </c>
       <c r="J19">
-        <v>1.022261175489888</v>
+        <v>1.046608624799006</v>
       </c>
       <c r="K19">
-        <v>1.026697606941876</v>
+        <v>1.04590130633027</v>
       </c>
       <c r="L19">
-        <v>1.015845718500241</v>
+        <v>1.042194781795617</v>
       </c>
       <c r="M19">
-        <v>0.9507941515142104</v>
+        <v>1.045699072903332</v>
       </c>
       <c r="N19">
-        <v>1.023712903614079</v>
+        <v>1.048094929093908</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9925944578220945</v>
+        <v>1.040137798353203</v>
       </c>
       <c r="D20">
-        <v>1.011170396031155</v>
+        <v>1.042283122087898</v>
       </c>
       <c r="E20">
-        <v>1.000009146274618</v>
+        <v>1.038528722756372</v>
       </c>
       <c r="F20">
-        <v>0.9300982127962892</v>
+        <v>1.04156355376789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03832151302891</v>
+        <v>1.043049239791206</v>
       </c>
       <c r="J20">
-        <v>1.020413866002584</v>
+        <v>1.046306172156957</v>
       </c>
       <c r="K20">
-        <v>1.025019630687487</v>
+        <v>1.045634858181119</v>
       </c>
       <c r="L20">
-        <v>1.01405183485814</v>
+        <v>1.041893452868905</v>
       </c>
       <c r="M20">
-        <v>0.9454926430289176</v>
+        <v>1.044917772309785</v>
       </c>
       <c r="N20">
-        <v>1.021862970735414</v>
+        <v>1.047792046934415</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9839951247333962</v>
+        <v>1.038754231032325</v>
       </c>
       <c r="D21">
-        <v>1.004450472591158</v>
+        <v>1.041204995561</v>
       </c>
       <c r="E21">
-        <v>0.9928861791632215</v>
+        <v>1.037336291527297</v>
       </c>
       <c r="F21">
-        <v>0.9102519645871173</v>
+        <v>1.038797046008756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033928070889103</v>
+        <v>1.042488256308398</v>
       </c>
       <c r="J21">
-        <v>1.014177586122077</v>
+        <v>1.045320258097211</v>
       </c>
       <c r="K21">
-        <v>1.019348017116289</v>
+        <v>1.044765869854992</v>
       </c>
       <c r="L21">
-        <v>1.008003590139787</v>
+        <v>1.040911463594124</v>
       </c>
       <c r="M21">
-        <v>0.9271595070263211</v>
+        <v>1.04236680564632</v>
       </c>
       <c r="N21">
-        <v>1.015617834622165</v>
+        <v>1.046804732763618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9783360447680254</v>
+        <v>1.037882794119753</v>
       </c>
       <c r="D22">
-        <v>1.000023788875446</v>
+        <v>1.040525663316836</v>
       </c>
       <c r="E22">
-        <v>0.9882056936743457</v>
+        <v>1.036585370652073</v>
       </c>
       <c r="F22">
-        <v>0.896690630473324</v>
+        <v>1.037049264629452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030994224684073</v>
+        <v>1.042132915446745</v>
       </c>
       <c r="J22">
-        <v>1.010057443929709</v>
+        <v>1.044698344996942</v>
       </c>
       <c r="K22">
-        <v>1.015594774518305</v>
+        <v>1.044217375886774</v>
       </c>
       <c r="L22">
-        <v>1.004014475690949</v>
+        <v>1.040292228598785</v>
       </c>
       <c r="M22">
-        <v>0.9146297691788567</v>
+        <v>1.040754332865615</v>
       </c>
       <c r="N22">
-        <v>1.011491841355298</v>
+        <v>1.046181936475413</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9813619758290982</v>
+        <v>1.038344906936859</v>
       </c>
       <c r="D23">
-        <v>1.002391257904188</v>
+        <v>1.040885931415271</v>
       </c>
       <c r="E23">
-        <v>0.9907076879469816</v>
+        <v>1.036983562758817</v>
       </c>
       <c r="F23">
-        <v>0.9039958045759015</v>
+        <v>1.037976606331729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032567321968744</v>
+        <v>1.042321539187814</v>
       </c>
       <c r="J23">
-        <v>1.012262142057178</v>
+        <v>1.045028227140776</v>
       </c>
       <c r="K23">
-        <v>1.017603774922629</v>
+        <v>1.044508346219099</v>
       </c>
       <c r="L23">
-        <v>1.00614836417155</v>
+        <v>1.040620670928277</v>
       </c>
       <c r="M23">
-        <v>0.9213793561218084</v>
+        <v>1.04160996384129</v>
       </c>
       <c r="N23">
-        <v>1.013699670406989</v>
+        <v>1.046512287089729</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9927347564568664</v>
+        <v>1.040160968560829</v>
       </c>
       <c r="D24">
-        <v>1.011279976718115</v>
+        <v>1.042301172471449</v>
       </c>
       <c r="E24">
-        <v>1.000125467141215</v>
+        <v>1.038548694206278</v>
       </c>
       <c r="F24">
-        <v>0.930415185282477</v>
+        <v>1.041609796436498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038392569816151</v>
+        <v>1.043058600575264</v>
       </c>
       <c r="J24">
-        <v>1.020515373069218</v>
+        <v>1.046322667136715</v>
       </c>
       <c r="K24">
-        <v>1.025111857284135</v>
+        <v>1.04564939122169</v>
       </c>
       <c r="L24">
-        <v>1.014150379794164</v>
+        <v>1.041909885582557</v>
       </c>
       <c r="M24">
-        <v>0.9457853923193967</v>
+        <v>1.044960397601248</v>
       </c>
       <c r="N24">
-        <v>1.021964621953726</v>
+        <v>1.047808565338936</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004999930933173</v>
+        <v>1.042261958045016</v>
       </c>
       <c r="D25">
-        <v>1.020854348924416</v>
+        <v>1.043937248571208</v>
       </c>
       <c r="E25">
-        <v>1.010308343353217</v>
+        <v>1.040359925221447</v>
       </c>
       <c r="F25">
-        <v>0.9573942102864094</v>
+        <v>1.045791107396528</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044529757509806</v>
+        <v>1.043902642823013</v>
       </c>
       <c r="J25">
-        <v>1.029360191181355</v>
+        <v>1.047816136693884</v>
       </c>
       <c r="K25">
-        <v>1.033137329352661</v>
+        <v>1.046964422484468</v>
       </c>
       <c r="L25">
-        <v>1.022748715735648</v>
+        <v>1.043398192576815</v>
       </c>
       <c r="M25">
-        <v>0.9706920118126008</v>
+        <v>1.048812565000125</v>
       </c>
       <c r="N25">
-        <v>1.030822000722097</v>
+        <v>1.049304155794179</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043932743268985</v>
+        <v>1.014169496466348</v>
       </c>
       <c r="D2">
-        <v>1.045237337436435</v>
+        <v>1.028006480104139</v>
       </c>
       <c r="E2">
-        <v>1.041800697123538</v>
+        <v>1.017939406746318</v>
       </c>
       <c r="F2">
-        <v>1.049099777258221</v>
+        <v>0.976740930993349</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044566932928541</v>
+        <v>1.049022288011224</v>
       </c>
       <c r="J2">
-        <v>1.049000537369658</v>
+        <v>1.03593450504801</v>
       </c>
       <c r="K2">
-        <v>1.048006141244341</v>
+        <v>1.039088955908886</v>
       </c>
       <c r="L2">
-        <v>1.044579186282664</v>
+        <v>1.029154348932163</v>
       </c>
       <c r="M2">
-        <v>1.051857777827612</v>
+        <v>0.9885341022146406</v>
       </c>
       <c r="N2">
-        <v>1.050490238454766</v>
+        <v>1.037405650868527</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045143125510318</v>
+        <v>1.02052399865266</v>
       </c>
       <c r="D3">
-        <v>1.04617860050535</v>
+        <v>1.032960393223447</v>
       </c>
       <c r="E3">
-        <v>1.042844677160427</v>
+        <v>1.023237038180421</v>
       </c>
       <c r="F3">
-        <v>1.051487736312702</v>
+        <v>0.9897998738303611</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045044182254169</v>
+        <v>1.052086783549649</v>
       </c>
       <c r="J3">
-        <v>1.04985667644488</v>
+        <v>1.040470377003079</v>
       </c>
       <c r="K3">
-        <v>1.048758465866926</v>
+        <v>1.043188218366977</v>
       </c>
       <c r="L3">
-        <v>1.045433256027789</v>
+        <v>1.033580985279863</v>
       </c>
       <c r="M3">
-        <v>1.054053848853092</v>
+        <v>1.000564952582228</v>
       </c>
       <c r="N3">
-        <v>1.051347593345676</v>
+        <v>1.041947964282044</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045925087282464</v>
+        <v>1.02450941070672</v>
       </c>
       <c r="D4">
-        <v>1.046786432886435</v>
+        <v>1.036066335832581</v>
       </c>
       <c r="E4">
-        <v>1.043519237544882</v>
+        <v>1.026563527857096</v>
       </c>
       <c r="F4">
-        <v>1.05302650123891</v>
+        <v>0.9978600237354636</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045350669819362</v>
+        <v>1.053987705997706</v>
       </c>
       <c r="J4">
-        <v>1.050408909171509</v>
+        <v>1.043306283784655</v>
       </c>
       <c r="K4">
-        <v>1.049243422393772</v>
+        <v>1.045748118728164</v>
       </c>
       <c r="L4">
-        <v>1.04598433441069</v>
+        <v>1.036351586370195</v>
       </c>
       <c r="M4">
-        <v>1.055468156743401</v>
+        <v>1.00798434518803</v>
       </c>
       <c r="N4">
-        <v>1.051900610306119</v>
+        <v>1.044787898376533</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046253533302286</v>
+        <v>1.026156451864206</v>
       </c>
       <c r="D5">
-        <v>1.047041675676442</v>
+        <v>1.037349674799154</v>
       </c>
       <c r="E5">
-        <v>1.043802595812555</v>
+        <v>1.027939146142119</v>
       </c>
       <c r="F5">
-        <v>1.053671903823833</v>
+        <v>1.001163584165105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045478964563315</v>
+        <v>1.054768419302739</v>
       </c>
       <c r="J5">
-        <v>1.050640653908222</v>
+        <v>1.044476180473853</v>
       </c>
       <c r="K5">
-        <v>1.049446859704908</v>
+        <v>1.046803450309916</v>
       </c>
       <c r="L5">
-        <v>1.046215637707377</v>
+        <v>1.037495221264213</v>
       </c>
       <c r="M5">
-        <v>1.056061165033712</v>
+        <v>1.011023737802853</v>
       </c>
       <c r="N5">
-        <v>1.052132684146939</v>
+        <v>1.045959456453218</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046308663939979</v>
+        <v>1.026431379957073</v>
       </c>
       <c r="D6">
-        <v>1.047084515176395</v>
+        <v>1.037563878390428</v>
       </c>
       <c r="E6">
-        <v>1.043850159720871</v>
+        <v>1.028168818403896</v>
       </c>
       <c r="F6">
-        <v>1.0537801832605</v>
+        <v>1.001713508214476</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045500473521251</v>
+        <v>1.054898455655643</v>
       </c>
       <c r="J6">
-        <v>1.050679540719315</v>
+        <v>1.044671340512263</v>
       </c>
       <c r="K6">
-        <v>1.049480992129858</v>
+        <v>1.046979457957157</v>
       </c>
       <c r="L6">
-        <v>1.046254452959555</v>
+        <v>1.037686039260505</v>
       </c>
       <c r="M6">
-        <v>1.05616064291109</v>
+        <v>1.011529595005367</v>
       </c>
       <c r="N6">
-        <v>1.052171626181764</v>
+        <v>1.046154893641268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045929477129026</v>
+        <v>1.024531527973106</v>
       </c>
       <c r="D7">
-        <v>1.046789844586696</v>
+        <v>1.036083570102091</v>
       </c>
       <c r="E7">
-        <v>1.043523024677851</v>
+        <v>1.026581996878211</v>
       </c>
       <c r="F7">
-        <v>1.053035130958695</v>
+        <v>0.9979044895726084</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045352386266048</v>
+        <v>1.053998208884886</v>
       </c>
       <c r="J7">
-        <v>1.050412007376413</v>
+        <v>1.043322001953666</v>
       </c>
       <c r="K7">
-        <v>1.04924614245016</v>
+        <v>1.045762300418362</v>
       </c>
       <c r="L7">
-        <v>1.045987426545245</v>
+        <v>1.036366949056715</v>
       </c>
       <c r="M7">
-        <v>1.055476086656485</v>
+        <v>1.00802526153604</v>
       </c>
       <c r="N7">
-        <v>1.051903712910829</v>
+        <v>1.044803638867146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04434205684541</v>
+        <v>1.016344363351491</v>
       </c>
       <c r="D8">
-        <v>1.045555698330704</v>
+        <v>1.029702214659485</v>
       </c>
       <c r="E8">
-        <v>1.042153717188038</v>
+        <v>1.01975169055809</v>
       </c>
       <c r="F8">
-        <v>1.049908148882319</v>
+        <v>0.9812404599455782</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044728705272684</v>
+        <v>1.050075700694141</v>
       </c>
       <c r="J8">
-        <v>1.049290237756808</v>
+        <v>1.037488845069515</v>
       </c>
       <c r="K8">
-        <v>1.048260777871785</v>
+        <v>1.040494337156573</v>
       </c>
       <c r="L8">
-        <v>1.044868148878568</v>
+        <v>1.030670597667241</v>
       </c>
       <c r="M8">
-        <v>1.05260135907733</v>
+        <v>0.9926806835530489</v>
       </c>
       <c r="N8">
-        <v>1.050780350249695</v>
+        <v>1.038962198231148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041535109370893</v>
+        <v>1.000854962590858</v>
       </c>
       <c r="D9">
-        <v>1.043371390555874</v>
+        <v>1.017619819087306</v>
       </c>
       <c r="E9">
-        <v>1.039733254481126</v>
+        <v>1.006863985138122</v>
       </c>
       <c r="F9">
-        <v>1.044347189931047</v>
+        <v>0.9484297780949411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043611718513763</v>
+        <v>1.042472127200055</v>
       </c>
       <c r="J9">
-        <v>1.047299969002032</v>
+        <v>1.026377566006986</v>
       </c>
       <c r="K9">
-        <v>1.046510107938976</v>
+        <v>1.030433351957231</v>
       </c>
       <c r="L9">
-        <v>1.04288370180426</v>
+        <v>1.019846672012869</v>
       </c>
       <c r="M9">
-        <v>1.047482776394319</v>
+        <v>0.9624188954333772</v>
       </c>
       <c r="N9">
-        <v>1.048787255085001</v>
+        <v>1.027835139877868</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039656941996355</v>
+        <v>0.9896560385576471</v>
       </c>
       <c r="D10">
-        <v>1.041908483326912</v>
+        <v>1.008874955929112</v>
       </c>
       <c r="E10">
-        <v>1.03811426685003</v>
+        <v>0.9975737303888509</v>
       </c>
       <c r="F10">
-        <v>1.040603222881471</v>
+        <v>0.9234112861698085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042854720035505</v>
+        <v>1.036828761855954</v>
       </c>
       <c r="J10">
-        <v>1.045963729567423</v>
+        <v>1.018286155577262</v>
       </c>
       <c r="K10">
-        <v>1.045333103565895</v>
+        <v>1.023085798090934</v>
       </c>
       <c r="L10">
-        <v>1.041552328367055</v>
+        <v>1.011986930501807</v>
       </c>
       <c r="M10">
-        <v>1.044032454904197</v>
+        <v>0.9393162496939665</v>
       </c>
       <c r="N10">
-        <v>1.047449118037126</v>
+        <v>1.019732238717236</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038841968357594</v>
+        <v>0.9845539870572612</v>
       </c>
       <c r="D11">
-        <v>1.041273379865988</v>
+        <v>1.004887418927516</v>
       </c>
       <c r="E11">
-        <v>1.037411900695516</v>
+        <v>0.9933486984191069</v>
       </c>
       <c r="F11">
-        <v>1.038972786639726</v>
+        <v>0.9115683031182579</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042523947338278</v>
+        <v>1.034215923264264</v>
       </c>
       <c r="J11">
-        <v>1.045382833353632</v>
+        <v>1.014583761260051</v>
       </c>
       <c r="K11">
-        <v>1.044821043585509</v>
+        <v>1.019717750533357</v>
       </c>
       <c r="L11">
-        <v>1.040973777979647</v>
+        <v>1.008397148152566</v>
       </c>
       <c r="M11">
-        <v>1.042528904453355</v>
+        <v>0.9283756506619184</v>
       </c>
       <c r="N11">
-        <v>1.046867396884082</v>
+        <v>1.016024586575424</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038538986451675</v>
+        <v>0.9826158475092117</v>
       </c>
       <c r="D12">
-        <v>1.041037220318412</v>
+        <v>1.003371932599822</v>
       </c>
       <c r="E12">
-        <v>1.037150805055709</v>
+        <v>0.9917449087883603</v>
       </c>
       <c r="F12">
-        <v>1.038365727961106</v>
+        <v>0.9069862033199223</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042400629798475</v>
+        <v>1.033216224459668</v>
       </c>
       <c r="J12">
-        <v>1.045166712281658</v>
+        <v>1.013174603593302</v>
       </c>
       <c r="K12">
-        <v>1.044630474611011</v>
+        <v>1.018434815578663</v>
       </c>
       <c r="L12">
-        <v>1.040758564584194</v>
+        <v>1.007031990849625</v>
       </c>
       <c r="M12">
-        <v>1.041968940128231</v>
+        <v>0.92414225983922</v>
       </c>
       <c r="N12">
-        <v>1.046650968895395</v>
+        <v>1.014613427743156</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038603989174042</v>
+        <v>0.9830336255342644</v>
       </c>
       <c r="D13">
-        <v>1.041087888914479</v>
+        <v>1.003698641816744</v>
       </c>
       <c r="E13">
-        <v>1.037206820343668</v>
+        <v>0.992090560756487</v>
       </c>
       <c r="F13">
-        <v>1.038496010157282</v>
+        <v>0.9079779794721938</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042427102447661</v>
+        <v>1.033432055217073</v>
       </c>
       <c r="J13">
-        <v>1.045213086927856</v>
+        <v>1.013478484613462</v>
       </c>
       <c r="K13">
-        <v>1.044671368998086</v>
+        <v>1.018711526078635</v>
       </c>
       <c r="L13">
-        <v>1.040804742879238</v>
+        <v>1.007326329124016</v>
       </c>
       <c r="M13">
-        <v>1.042089122035381</v>
+        <v>0.9250585737270335</v>
       </c>
       <c r="N13">
-        <v>1.04669740939891</v>
+        <v>1.01491774030922</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038816929212205</v>
+        <v>0.9843946906872456</v>
       </c>
       <c r="D14">
-        <v>1.041253864052873</v>
+        <v>1.004762876653111</v>
       </c>
       <c r="E14">
-        <v>1.037390322672478</v>
+        <v>0.9932168578502908</v>
       </c>
       <c r="F14">
-        <v>1.038922636683057</v>
+        <v>0.9111934978744162</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042513763159331</v>
+        <v>1.034133908438015</v>
       </c>
       <c r="J14">
-        <v>1.045364975897336</v>
+        <v>1.014467999131852</v>
       </c>
       <c r="K14">
-        <v>1.044805298613272</v>
+        <v>1.019612379362859</v>
       </c>
       <c r="L14">
-        <v>1.040955994808362</v>
+        <v>1.008284976596451</v>
       </c>
       <c r="M14">
-        <v>1.042482648060822</v>
+        <v>0.928029375889842</v>
       </c>
       <c r="N14">
-        <v>1.046849514068149</v>
+        <v>1.015908660051725</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038948093356147</v>
+        <v>0.985227417553815</v>
       </c>
       <c r="D15">
-        <v>1.041356093019529</v>
+        <v>1.005413894669952</v>
       </c>
       <c r="E15">
-        <v>1.03750335711612</v>
+        <v>0.99390610743327</v>
       </c>
       <c r="F15">
-        <v>1.039185302803944</v>
+        <v>0.9131493154072556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042567097395259</v>
+        <v>1.034562347650568</v>
       </c>
       <c r="J15">
-        <v>1.04545851311468</v>
+        <v>1.015073037256126</v>
       </c>
       <c r="K15">
-        <v>1.04488776827057</v>
+        <v>1.020163065773861</v>
       </c>
       <c r="L15">
-        <v>1.041049144352163</v>
+        <v>1.008871295541532</v>
       </c>
       <c r="M15">
-        <v>1.042724915103968</v>
+        <v>0.9298362995311146</v>
       </c>
       <c r="N15">
-        <v>1.04694318411907</v>
+        <v>1.016514557399534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039710992407511</v>
+        <v>0.9899889153984247</v>
       </c>
       <c r="D16">
-        <v>1.041950597741423</v>
+        <v>1.009135030850009</v>
       </c>
       <c r="E16">
-        <v>1.03816085203563</v>
+        <v>0.9978495472340594</v>
       </c>
       <c r="F16">
-        <v>1.040711230033435</v>
+        <v>0.9241735271964792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042876608963642</v>
+        <v>1.036998304321263</v>
       </c>
       <c r="J16">
-        <v>1.046002232904762</v>
+        <v>1.018527359455027</v>
       </c>
       <c r="K16">
-        <v>1.045367036103199</v>
+        <v>1.023305086230367</v>
       </c>
       <c r="L16">
-        <v>1.041590681089668</v>
+        <v>1.012220945353145</v>
       </c>
       <c r="M16">
-        <v>1.044132035749818</v>
+        <v>0.9400203386806866</v>
       </c>
       <c r="N16">
-        <v>1.04748767605362</v>
+        <v>1.019973785132174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040189074973631</v>
+        <v>0.9929047879381623</v>
       </c>
       <c r="D17">
-        <v>1.042323068116899</v>
+        <v>1.011412778215814</v>
       </c>
       <c r="E17">
-        <v>1.038572920489423</v>
+        <v>1.000266444112029</v>
       </c>
       <c r="F17">
-        <v>1.041665886852687</v>
+        <v>0.9307990573467695</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043069954077834</v>
+        <v>1.038478659045049</v>
       </c>
       <c r="J17">
-        <v>1.046342675515206</v>
+        <v>1.020638381929591</v>
       </c>
       <c r="K17">
-        <v>1.045667019516814</v>
+        <v>1.025223616057446</v>
       </c>
       <c r="L17">
-        <v>1.041929818583974</v>
+        <v>1.014269803210238</v>
       </c>
       <c r="M17">
-        <v>1.045012099637897</v>
+        <v>0.9461399256718285</v>
       </c>
       <c r="N17">
-        <v>1.04782860213162</v>
+        <v>1.02208780550079</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040467767459407</v>
+        <v>0.9945815633265088</v>
       </c>
       <c r="D18">
-        <v>1.042540164460704</v>
+        <v>1.012722286292498</v>
       </c>
       <c r="E18">
-        <v>1.038813144707244</v>
+        <v>1.001656976510891</v>
       </c>
       <c r="F18">
-        <v>1.042221830574884</v>
+        <v>0.93456872065499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043182441118282</v>
+        <v>1.039326094640725</v>
       </c>
       <c r="J18">
-        <v>1.046541028799362</v>
+        <v>1.021850847183679</v>
       </c>
       <c r="K18">
-        <v>1.045841762653357</v>
+        <v>1.026324971462596</v>
       </c>
       <c r="L18">
-        <v>1.042127433627415</v>
+        <v>1.015447169547175</v>
       </c>
       <c r="M18">
-        <v>1.045524508817067</v>
+        <v>0.9496212959494668</v>
       </c>
       <c r="N18">
-        <v>1.048027237100191</v>
+        <v>1.02330199259461</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040562766613909</v>
+        <v>0.9951493631497536</v>
       </c>
       <c r="D19">
-        <v>1.042614161835233</v>
+        <v>1.01316567115517</v>
       </c>
       <c r="E19">
-        <v>1.038895033344241</v>
+        <v>1.002127962449738</v>
       </c>
       <c r="F19">
-        <v>1.042411243275232</v>
+        <v>0.9358387865035962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043220747610737</v>
+        <v>1.039612427594477</v>
       </c>
       <c r="J19">
-        <v>1.046608624799006</v>
+        <v>1.02226117548989</v>
       </c>
       <c r="K19">
-        <v>1.04590130633027</v>
+        <v>1.026697606941877</v>
       </c>
       <c r="L19">
-        <v>1.042194781795617</v>
+        <v>1.015845718500242</v>
       </c>
       <c r="M19">
-        <v>1.045699072903332</v>
+        <v>0.9507941515142131</v>
       </c>
       <c r="N19">
-        <v>1.048094929093908</v>
+        <v>1.023712903614081</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040137798353203</v>
+        <v>0.9925944578220925</v>
       </c>
       <c r="D20">
-        <v>1.042283122087898</v>
+        <v>1.011170396031154</v>
       </c>
       <c r="E20">
-        <v>1.038528722756372</v>
+        <v>1.000009146274617</v>
       </c>
       <c r="F20">
-        <v>1.04156355376789</v>
+        <v>0.9300982127962887</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043049239791206</v>
+        <v>1.038321513028909</v>
       </c>
       <c r="J20">
-        <v>1.046306172156957</v>
+        <v>1.020413866002582</v>
       </c>
       <c r="K20">
-        <v>1.045634858181119</v>
+        <v>1.025019630687485</v>
       </c>
       <c r="L20">
-        <v>1.041893452868905</v>
+        <v>1.014051834858138</v>
       </c>
       <c r="M20">
-        <v>1.044917772309785</v>
+        <v>0.9454926430289171</v>
       </c>
       <c r="N20">
-        <v>1.047792046934415</v>
+        <v>1.021862970735412</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038754231032325</v>
+        <v>0.9839951247333968</v>
       </c>
       <c r="D21">
-        <v>1.041204995561</v>
+        <v>1.004450472591159</v>
       </c>
       <c r="E21">
-        <v>1.037336291527297</v>
+        <v>0.992886179163222</v>
       </c>
       <c r="F21">
-        <v>1.038797046008756</v>
+        <v>0.9102519645871181</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042488256308398</v>
+        <v>1.033928070889104</v>
       </c>
       <c r="J21">
-        <v>1.045320258097211</v>
+        <v>1.014177586122078</v>
       </c>
       <c r="K21">
-        <v>1.044765869854992</v>
+        <v>1.01934801711629</v>
       </c>
       <c r="L21">
-        <v>1.040911463594124</v>
+        <v>1.008003590139787</v>
       </c>
       <c r="M21">
-        <v>1.04236680564632</v>
+        <v>0.9271595070263219</v>
       </c>
       <c r="N21">
-        <v>1.046804732763618</v>
+        <v>1.015617834622166</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037882794119753</v>
+        <v>0.9783360447680268</v>
       </c>
       <c r="D22">
-        <v>1.040525663316836</v>
+        <v>1.000023788875447</v>
       </c>
       <c r="E22">
-        <v>1.036585370652073</v>
+        <v>0.9882056936743465</v>
       </c>
       <c r="F22">
-        <v>1.037049264629452</v>
+        <v>0.8966906304733252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042132915446745</v>
+        <v>1.030994224684074</v>
       </c>
       <c r="J22">
-        <v>1.044698344996942</v>
+        <v>1.010057443929711</v>
       </c>
       <c r="K22">
-        <v>1.044217375886774</v>
+        <v>1.015594774518306</v>
       </c>
       <c r="L22">
-        <v>1.040292228598785</v>
+        <v>1.00401447569095</v>
       </c>
       <c r="M22">
-        <v>1.040754332865615</v>
+        <v>0.9146297691788579</v>
       </c>
       <c r="N22">
-        <v>1.046181936475413</v>
+        <v>1.011491841355299</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038344906936859</v>
+        <v>0.9813619758290965</v>
       </c>
       <c r="D23">
-        <v>1.040885931415271</v>
+        <v>1.002391257904186</v>
       </c>
       <c r="E23">
-        <v>1.036983562758817</v>
+        <v>0.9907076879469802</v>
       </c>
       <c r="F23">
-        <v>1.037976606331729</v>
+        <v>0.9039958045758998</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042321539187814</v>
+        <v>1.032567321968743</v>
       </c>
       <c r="J23">
-        <v>1.045028227140776</v>
+        <v>1.012262142057176</v>
       </c>
       <c r="K23">
-        <v>1.044508346219099</v>
+        <v>1.017603774922627</v>
       </c>
       <c r="L23">
-        <v>1.040620670928277</v>
+        <v>1.006148364171549</v>
       </c>
       <c r="M23">
-        <v>1.04160996384129</v>
+        <v>0.9213793561218068</v>
       </c>
       <c r="N23">
-        <v>1.046512287089729</v>
+        <v>1.013699670406988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040160968560829</v>
+        <v>0.9927347564568642</v>
       </c>
       <c r="D24">
-        <v>1.042301172471449</v>
+        <v>1.011279976718113</v>
       </c>
       <c r="E24">
-        <v>1.038548694206278</v>
+        <v>1.000125467141213</v>
       </c>
       <c r="F24">
-        <v>1.041609796436498</v>
+        <v>0.9304151852824739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043058600575264</v>
+        <v>1.03839256981615</v>
       </c>
       <c r="J24">
-        <v>1.046322667136715</v>
+        <v>1.020515373069216</v>
       </c>
       <c r="K24">
-        <v>1.04564939122169</v>
+        <v>1.025111857284134</v>
       </c>
       <c r="L24">
-        <v>1.041909885582557</v>
+        <v>1.014150379794162</v>
       </c>
       <c r="M24">
-        <v>1.044960397601248</v>
+        <v>0.9457853923193937</v>
       </c>
       <c r="N24">
-        <v>1.047808565338936</v>
+        <v>1.021964621953724</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042261958045016</v>
+        <v>1.004999930933174</v>
       </c>
       <c r="D25">
-        <v>1.043937248571208</v>
+        <v>1.020854348924417</v>
       </c>
       <c r="E25">
-        <v>1.040359925221447</v>
+        <v>1.010308343353218</v>
       </c>
       <c r="F25">
-        <v>1.045791107396528</v>
+        <v>0.9573942102864105</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043902642823013</v>
+        <v>1.044529757509807</v>
       </c>
       <c r="J25">
-        <v>1.047816136693884</v>
+        <v>1.029360191181356</v>
       </c>
       <c r="K25">
-        <v>1.046964422484468</v>
+        <v>1.033137329352662</v>
       </c>
       <c r="L25">
-        <v>1.043398192576815</v>
+        <v>1.022748715735649</v>
       </c>
       <c r="M25">
-        <v>1.048812565000125</v>
+        <v>0.9706920118126018</v>
       </c>
       <c r="N25">
-        <v>1.049304155794179</v>
+        <v>1.030822000722097</v>
       </c>
     </row>
   </sheetData>
